--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.36482463515352</v>
+        <v>1.987569333333333</v>
       </c>
       <c r="H2">
-        <v>1.36482463515352</v>
+        <v>5.962707999999999</v>
       </c>
       <c r="I2">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="J2">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N2">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q2">
-        <v>57.32199585950725</v>
+        <v>105.1628969852209</v>
       </c>
       <c r="R2">
-        <v>57.32199585950725</v>
+        <v>946.4660728669878</v>
       </c>
       <c r="S2">
-        <v>0.03270159053145597</v>
+        <v>0.0516679605868599</v>
       </c>
       <c r="T2">
-        <v>0.03270159053145597</v>
+        <v>0.05166796058685991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.36482463515352</v>
+        <v>1.987569333333333</v>
       </c>
       <c r="H3">
-        <v>1.36482463515352</v>
+        <v>5.962707999999999</v>
       </c>
       <c r="I3">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="J3">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N3">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q3">
-        <v>64.04012934664331</v>
+        <v>93.93264263487775</v>
       </c>
       <c r="R3">
-        <v>64.04012934664331</v>
+        <v>845.3937837138998</v>
       </c>
       <c r="S3">
-        <v>0.03653421441584481</v>
+        <v>0.04615038399104317</v>
       </c>
       <c r="T3">
-        <v>0.03653421441584481</v>
+        <v>0.04615038399104318</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.36482463515352</v>
+        <v>1.987569333333333</v>
       </c>
       <c r="H4">
-        <v>1.36482463515352</v>
+        <v>5.962707999999999</v>
       </c>
       <c r="I4">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="J4">
-        <v>0.08988466718942305</v>
+        <v>0.1241595834663642</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N4">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q4">
-        <v>36.19499775730848</v>
+        <v>53.61390231444177</v>
       </c>
       <c r="R4">
-        <v>36.19499775730848</v>
+        <v>482.5251208299759</v>
       </c>
       <c r="S4">
-        <v>0.02064886224212228</v>
+        <v>0.02634123888846115</v>
       </c>
       <c r="T4">
-        <v>0.02064886224212228</v>
+        <v>0.02634123888846116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.31996093061368</v>
+        <v>7.481595333333334</v>
       </c>
       <c r="H5">
-        <v>7.31996093061368</v>
+        <v>22.444786</v>
       </c>
       <c r="I5">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="J5">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N5">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q5">
-        <v>307.4349329202977</v>
+        <v>395.8534809977829</v>
       </c>
       <c r="R5">
-        <v>307.4349329202977</v>
+        <v>3562.681328980046</v>
       </c>
       <c r="S5">
-        <v>0.175388367775365</v>
+        <v>0.1944881953683637</v>
       </c>
       <c r="T5">
-        <v>0.175388367775365</v>
+        <v>0.1944881953683637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.31996093061368</v>
+        <v>7.481595333333334</v>
       </c>
       <c r="H6">
-        <v>7.31996093061368</v>
+        <v>22.444786</v>
       </c>
       <c r="I6">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="J6">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N6">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q6">
-        <v>343.4662833120291</v>
+        <v>353.5806318797278</v>
       </c>
       <c r="R6">
-        <v>343.4662833120291</v>
+        <v>3182.22568691755</v>
       </c>
       <c r="S6">
-        <v>0.1959438709314957</v>
+        <v>0.1737189700546782</v>
       </c>
       <c r="T6">
-        <v>0.1959438709314957</v>
+        <v>0.1737189700546782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.31996093061368</v>
+        <v>7.481595333333334</v>
       </c>
       <c r="H7">
-        <v>7.31996093061368</v>
+        <v>22.444786</v>
       </c>
       <c r="I7">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="J7">
-        <v>0.4820782356509716</v>
+        <v>0.4673606825542495</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N7">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q7">
-        <v>194.1245509811199</v>
+        <v>201.8130963435658</v>
       </c>
       <c r="R7">
-        <v>194.1245509811199</v>
+        <v>1816.317867092092</v>
       </c>
       <c r="S7">
-        <v>0.1107459969441109</v>
+        <v>0.0991535171312076</v>
       </c>
       <c r="T7">
-        <v>0.1107459969441109</v>
+        <v>0.09915351713120761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.49939075517625</v>
+        <v>6.539018333333334</v>
       </c>
       <c r="H8">
-        <v>6.49939075517625</v>
+        <v>19.617055</v>
       </c>
       <c r="I8">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793862</v>
       </c>
       <c r="J8">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793863</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N8">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q8">
-        <v>272.9713696262716</v>
+        <v>345.9814456985673</v>
       </c>
       <c r="R8">
-        <v>272.9713696262716</v>
+        <v>3113.833011287105</v>
       </c>
       <c r="S8">
-        <v>0.1557272705264416</v>
+        <v>0.1699853866012327</v>
       </c>
       <c r="T8">
-        <v>0.1557272705264416</v>
+        <v>0.1699853866012327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.49939075517625</v>
+        <v>6.539018333333334</v>
       </c>
       <c r="H9">
-        <v>6.49939075517625</v>
+        <v>19.617055</v>
       </c>
       <c r="I9">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793862</v>
       </c>
       <c r="J9">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793863</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N9">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q9">
-        <v>304.9635930619371</v>
+        <v>309.0343878760694</v>
       </c>
       <c r="R9">
-        <v>304.9635930619371</v>
+        <v>2781.309490884625</v>
       </c>
       <c r="S9">
-        <v>0.1739784946036378</v>
+        <v>0.1518327949353571</v>
       </c>
       <c r="T9">
-        <v>0.1739784946036378</v>
+        <v>0.1518327949353572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.49939075517625</v>
+        <v>6.539018333333334</v>
       </c>
       <c r="H10">
-        <v>6.49939075517625</v>
+        <v>19.617055</v>
       </c>
       <c r="I10">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793862</v>
       </c>
       <c r="J10">
-        <v>0.4280370971596054</v>
+        <v>0.4084797339793863</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N10">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q10">
-        <v>172.3631210547534</v>
+        <v>176.3874518871345</v>
       </c>
       <c r="R10">
-        <v>172.3631210547534</v>
+        <v>1587.48706698421</v>
       </c>
       <c r="S10">
-        <v>0.098331332029526</v>
+        <v>0.08666155244279636</v>
       </c>
       <c r="T10">
-        <v>0.098331332029526</v>
+        <v>0.08666155244279637</v>
       </c>
     </row>
   </sheetData>
